--- a/excel/Price.xlsx
+++ b/excel/Price.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\348685\AppData\Local\Temp\63\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\348685\AppData\Local\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$D,Sheet1!$1:$1</definedName>
     <definedName name="QBCANSUPPORTUPDATE" localSheetId="0">FALSE</definedName>
     <definedName name="QBCOMPANYFILENAME" localSheetId="0">"I:\Terra Verde Official File NOT TEST.QBW"</definedName>
-    <definedName name="QBENDDATE" localSheetId="0">20191125</definedName>
+    <definedName name="QBENDDATE" localSheetId="0">20191126</definedName>
     <definedName name="QBHEADERSONSCREEN" localSheetId="0">FALSE</definedName>
     <definedName name="QBMETADATASIZE" localSheetId="0">0</definedName>
     <definedName name="QBPRESERVECOLOR" localSheetId="0">TRUE</definedName>
@@ -66,7 +66,7 @@
     <definedName name="QBREPORTSUBCOLAXIS" localSheetId="0">0</definedName>
     <definedName name="QBREPORTTYPE" localSheetId="0">419</definedName>
     <definedName name="QBROWHEADERS" localSheetId="0">4</definedName>
-    <definedName name="QBSTARTDATE" localSheetId="0">20191125</definedName>
+    <definedName name="QBSTARTDATE" localSheetId="0">20191126</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="2">
-        <v>111.53</v>
+        <v>128.31</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="2">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="2">
-        <v>111.53</v>
+        <v>128.31</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="2">
-        <v>111.53</v>
+        <v>128.31</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="2">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="2">
-        <v>111.53</v>
+        <v>128.31</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="2">
-        <v>111.53</v>
+        <v>128.31</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="2">
-        <v>108.01</v>
+        <v>124.25</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="2">
-        <v>116.94</v>
+        <v>134.54</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="2">
-        <v>118.57</v>
+        <v>136.43</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="2">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="2">
-        <v>138.87</v>
+        <v>159.71</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="2">
-        <v>111.53</v>
+        <v>128.31</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="2">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="2">
-        <v>111.53</v>
+        <v>128.31</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="2">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="2">
-        <v>106.39</v>
+        <v>122.36</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="2">
-        <v>104.22</v>
+        <v>119.92</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="2">
@@ -4185,7 +4185,7 @@
         <v>172</v>
       </c>
       <c r="E171" s="2">
-        <v>77.489999999999995</v>
+        <v>80.45</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="2">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="H171" s="3"/>
       <c r="I171" s="2">
-        <v>77.489999999999995</v>
+        <v>80.45</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4251,11 +4251,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.1" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 2:30 PM
-&amp;"Arial,Bold"&amp;8 11/25/19
+    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 1:48 PM
+&amp;"Arial,Bold"&amp;8 11/26/19
 &amp;"Arial,Bold"&amp;8 &amp;C&amp;"Arial,Bold"&amp;12 Terra Verde Supply Corp -Triangulo US
 &amp;"Arial,Bold"&amp;14 Item Prices by Price Rule
-&amp;"Arial,Bold"&amp;10 November 25, 2019</oddHeader>
+&amp;"Arial,Bold"&amp;10 November 26, 2019</oddHeader>
     <oddFooter>&amp;R&amp;"Arial,Bold"&amp;8 Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
